--- a/lib/report/benchmark_report/web14/exl/201909/jsliu__bank_test_&_city_(HF)(201909)_Loan_Portfolio_Analytics.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201909/jsliu__bank_test_&_city_(HF)(201909)_Loan_Portfolio_Analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\THC\R0702\Web ReportTemplates\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3F7036-5B9B-49B6-A669-6807EA1C57ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513EC311-4B7B-4F3B-9DAC-AA4E358E822D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14400" windowHeight="10755" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortgage Performance" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -211,7 +212,7 @@
     <t>Portfolio Name: Loans and lease financing receivables          Cycle: September, 2019           Evaluation Date: September 30, 2019</t>
   </si>
   <si>
-    <t>Printed on: 10/25/2019 5:22:24PM</t>
+    <t>Printed on: 11/12/2019 12:14:28PM</t>
   </si>
   <si>
     <t>Footnotes:_x000D_
@@ -821,6 +822,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -847,66 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1135,7 +1136,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A342-4F27-A596-D2BD6402FB60}"/>
+              <c16:uniqueId val="{00000000-5E28-4E93-BB59-1E4A9E3F5613}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1180,7 +1181,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1281,7 +1282,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-56BC-471E-970F-7D8919AC820D}"/>
+              <c16:uniqueId val="{00000000-7582-430D-B8B2-95A6CEB23CFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1326,7 +1327,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1410,62 +1411,54 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="THCLOGO">
+        <xdr:cNvPr id="5" name="THCLOGO" descr="default_report_logo.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="76199" y="0"/>
-          <a:ext cx="11439526" cy="762000"/>
+          <a:off x="76200" y="0"/>
+          <a:ext cx="11439524" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1473,7 +1466,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1511,58 +1504,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="THCLOGO">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="38100" y="0"/>
-          <a:ext cx="10125075" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1716,15 +1657,59 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="THCLOGO" descr="default_report_logo.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10191750" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>828675</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2139,7 +2124,7 @@
   <dimension ref="A1:AG82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2175,29 +2160,29 @@
     <row r="1" spans="2:33" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
       <c r="W3" s="33"/>
       <c r="X3" s="33"/>
       <c r="Y3" s="33"/>
@@ -2211,24 +2196,24 @@
       <c r="AG3" s="33"/>
     </row>
     <row r="4" spans="2:33" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
@@ -2247,24 +2232,24 @@
       <c r="AG4" s="24"/>
     </row>
     <row r="5" spans="2:33" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
@@ -2283,24 +2268,24 @@
       <c r="AG5" s="24"/>
     </row>
     <row r="6" spans="2:33" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
@@ -2319,24 +2304,24 @@
       <c r="AG6" s="24"/>
     </row>
     <row r="7" spans="2:33" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
@@ -2392,10 +2377,10 @@
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="61"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="11" t="s">
         <v>8</v>
       </c>
@@ -2405,14 +2390,14 @@
       <c r="G9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -2424,10 +2409,10 @@
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="2:33" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="52">
+      <c r="C10" s="43">
         <v>100</v>
       </c>
-      <c r="D10" s="53"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="8">
         <f>C10/100-U17+Q17</f>
         <v>2.9873312587265133</v>
@@ -2451,173 +2436,173 @@
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="2:33" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46" t="s">
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46" t="s">
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46" t="s">
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="62" t="s">
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AD11" s="63"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="44"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="36"/>
     </row>
     <row r="12" spans="2:33" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54"/>
-      <c r="C12" s="44" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="44" t="s">
+      <c r="M12" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="44" t="s">
+      <c r="N12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="44" t="s">
+      <c r="O12" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="P12" s="44" t="s">
+      <c r="P12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="44" t="s">
+      <c r="Q12" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="44" t="s">
+      <c r="R12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="S12" s="44" t="s">
+      <c r="S12" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="44" t="s">
+      <c r="T12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="U12" s="44" t="s">
+      <c r="U12" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="44" t="s">
+      <c r="V12" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="W12" s="44" t="s">
+      <c r="W12" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="X12" s="44" t="s">
+      <c r="X12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="44" t="s">
+      <c r="Y12" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="Z12" s="44" t="s">
+      <c r="Z12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AA12" s="44" t="s">
+      <c r="AA12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AB12" s="44" t="s">
+      <c r="AB12" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AC12" s="46" t="s">
+      <c r="AC12" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46" t="s">
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="44" t="s">
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:33" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="51"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
       <c r="AC13" s="32" t="s">
         <v>45</v>
       </c>
@@ -2630,121 +2615,121 @@
       <c r="AF13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AG13" s="44"/>
+      <c r="AG13" s="36"/>
     </row>
     <row r="14" spans="2:33" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="49" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="49" t="s">
+      <c r="R14" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="49" t="s">
+      <c r="S14" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="T14" s="49" t="s">
+      <c r="T14" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="U14" s="49" t="s">
+      <c r="U14" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="V14" s="49"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
     </row>
     <row r="15" spans="2:33" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
     </row>
     <row r="16" spans="2:33" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
     </row>
     <row r="17" spans="1:33" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
@@ -4852,992 +4837,992 @@
       <c r="AG53" s="28"/>
     </row>
     <row r="54" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
-      <c r="Z54" s="36"/>
-      <c r="AA54" s="36"/>
-      <c r="AB54" s="36"/>
-      <c r="AC54" s="36"/>
-      <c r="AD54" s="36"/>
-      <c r="AE54" s="36"/>
-      <c r="AF54" s="36"/>
-      <c r="AG54" s="37"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
+      <c r="AA54" s="56"/>
+      <c r="AB54" s="56"/>
+      <c r="AC54" s="56"/>
+      <c r="AD54" s="56"/>
+      <c r="AE54" s="56"/>
+      <c r="AF54" s="56"/>
+      <c r="AG54" s="57"/>
     </row>
     <row r="55" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="38"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="40"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="59"/>
+      <c r="AB55" s="59"/>
+      <c r="AC55" s="59"/>
+      <c r="AD55" s="59"/>
+      <c r="AE55" s="59"/>
+      <c r="AF55" s="59"/>
+      <c r="AG55" s="60"/>
     </row>
     <row r="56" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="38"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="40"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="59"/>
+      <c r="AC56" s="59"/>
+      <c r="AD56" s="59"/>
+      <c r="AE56" s="59"/>
+      <c r="AF56" s="59"/>
+      <c r="AG56" s="60"/>
     </row>
     <row r="57" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="39"/>
-      <c r="AA57" s="39"/>
-      <c r="AB57" s="39"/>
-      <c r="AC57" s="39"/>
-      <c r="AD57" s="39"/>
-      <c r="AE57" s="39"/>
-      <c r="AF57" s="39"/>
-      <c r="AG57" s="40"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="59"/>
+      <c r="AA57" s="59"/>
+      <c r="AB57" s="59"/>
+      <c r="AC57" s="59"/>
+      <c r="AD57" s="59"/>
+      <c r="AE57" s="59"/>
+      <c r="AF57" s="59"/>
+      <c r="AG57" s="60"/>
     </row>
     <row r="58" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
-      <c r="AA58" s="39"/>
-      <c r="AB58" s="39"/>
-      <c r="AC58" s="39"/>
-      <c r="AD58" s="39"/>
-      <c r="AE58" s="39"/>
-      <c r="AF58" s="39"/>
-      <c r="AG58" s="40"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="59"/>
+      <c r="T58" s="59"/>
+      <c r="U58" s="59"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+      <c r="X58" s="59"/>
+      <c r="Y58" s="59"/>
+      <c r="Z58" s="59"/>
+      <c r="AA58" s="59"/>
+      <c r="AB58" s="59"/>
+      <c r="AC58" s="59"/>
+      <c r="AD58" s="59"/>
+      <c r="AE58" s="59"/>
+      <c r="AF58" s="59"/>
+      <c r="AG58" s="60"/>
     </row>
     <row r="59" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="40"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="59"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="59"/>
+      <c r="AC59" s="59"/>
+      <c r="AD59" s="59"/>
+      <c r="AE59" s="59"/>
+      <c r="AF59" s="59"/>
+      <c r="AG59" s="60"/>
     </row>
     <row r="60" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="39"/>
-      <c r="AE60" s="39"/>
-      <c r="AF60" s="39"/>
-      <c r="AG60" s="40"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="59"/>
+      <c r="S60" s="59"/>
+      <c r="T60" s="59"/>
+      <c r="U60" s="59"/>
+      <c r="V60" s="59"/>
+      <c r="W60" s="59"/>
+      <c r="X60" s="59"/>
+      <c r="Y60" s="59"/>
+      <c r="Z60" s="59"/>
+      <c r="AA60" s="59"/>
+      <c r="AB60" s="59"/>
+      <c r="AC60" s="59"/>
+      <c r="AD60" s="59"/>
+      <c r="AE60" s="59"/>
+      <c r="AF60" s="59"/>
+      <c r="AG60" s="60"/>
     </row>
     <row r="61" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="38"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
-      <c r="AA61" s="39"/>
-      <c r="AB61" s="39"/>
-      <c r="AC61" s="39"/>
-      <c r="AD61" s="39"/>
-      <c r="AE61" s="39"/>
-      <c r="AF61" s="39"/>
-      <c r="AG61" s="40"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="59"/>
+      <c r="AC61" s="59"/>
+      <c r="AD61" s="59"/>
+      <c r="AE61" s="59"/>
+      <c r="AF61" s="59"/>
+      <c r="AG61" s="60"/>
     </row>
     <row r="62" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
-      <c r="AA62" s="39"/>
-      <c r="AB62" s="39"/>
-      <c r="AC62" s="39"/>
-      <c r="AD62" s="39"/>
-      <c r="AE62" s="39"/>
-      <c r="AF62" s="39"/>
-      <c r="AG62" s="40"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="59"/>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="59"/>
+      <c r="S62" s="59"/>
+      <c r="T62" s="59"/>
+      <c r="U62" s="59"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="59"/>
+      <c r="X62" s="59"/>
+      <c r="Y62" s="59"/>
+      <c r="Z62" s="59"/>
+      <c r="AA62" s="59"/>
+      <c r="AB62" s="59"/>
+      <c r="AC62" s="59"/>
+      <c r="AD62" s="59"/>
+      <c r="AE62" s="59"/>
+      <c r="AF62" s="59"/>
+      <c r="AG62" s="60"/>
     </row>
     <row r="63" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="38"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="39"/>
-      <c r="AA63" s="39"/>
-      <c r="AB63" s="39"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="39"/>
-      <c r="AE63" s="39"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="40"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="59"/>
+      <c r="S63" s="59"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="59"/>
+      <c r="Y63" s="59"/>
+      <c r="Z63" s="59"/>
+      <c r="AA63" s="59"/>
+      <c r="AB63" s="59"/>
+      <c r="AC63" s="59"/>
+      <c r="AD63" s="59"/>
+      <c r="AE63" s="59"/>
+      <c r="AF63" s="59"/>
+      <c r="AG63" s="60"/>
     </row>
     <row r="64" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="38"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
-      <c r="AA64" s="39"/>
-      <c r="AB64" s="39"/>
-      <c r="AC64" s="39"/>
-      <c r="AD64" s="39"/>
-      <c r="AE64" s="39"/>
-      <c r="AF64" s="39"/>
-      <c r="AG64" s="40"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="59"/>
+      <c r="S64" s="59"/>
+      <c r="T64" s="59"/>
+      <c r="U64" s="59"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59"/>
+      <c r="X64" s="59"/>
+      <c r="Y64" s="59"/>
+      <c r="Z64" s="59"/>
+      <c r="AA64" s="59"/>
+      <c r="AB64" s="59"/>
+      <c r="AC64" s="59"/>
+      <c r="AD64" s="59"/>
+      <c r="AE64" s="59"/>
+      <c r="AF64" s="59"/>
+      <c r="AG64" s="60"/>
     </row>
     <row r="65" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="38"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
-      <c r="Z65" s="39"/>
-      <c r="AA65" s="39"/>
-      <c r="AB65" s="39"/>
-      <c r="AC65" s="39"/>
-      <c r="AD65" s="39"/>
-      <c r="AE65" s="39"/>
-      <c r="AF65" s="39"/>
-      <c r="AG65" s="40"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="59"/>
+      <c r="S65" s="59"/>
+      <c r="T65" s="59"/>
+      <c r="U65" s="59"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="59"/>
+      <c r="X65" s="59"/>
+      <c r="Y65" s="59"/>
+      <c r="Z65" s="59"/>
+      <c r="AA65" s="59"/>
+      <c r="AB65" s="59"/>
+      <c r="AC65" s="59"/>
+      <c r="AD65" s="59"/>
+      <c r="AE65" s="59"/>
+      <c r="AF65" s="59"/>
+      <c r="AG65" s="60"/>
     </row>
     <row r="66" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="39"/>
-      <c r="AA66" s="39"/>
-      <c r="AB66" s="39"/>
-      <c r="AC66" s="39"/>
-      <c r="AD66" s="39"/>
-      <c r="AE66" s="39"/>
-      <c r="AF66" s="39"/>
-      <c r="AG66" s="40"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="59"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="59"/>
+      <c r="S66" s="59"/>
+      <c r="T66" s="59"/>
+      <c r="U66" s="59"/>
+      <c r="V66" s="59"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="59"/>
+      <c r="Y66" s="59"/>
+      <c r="Z66" s="59"/>
+      <c r="AA66" s="59"/>
+      <c r="AB66" s="59"/>
+      <c r="AC66" s="59"/>
+      <c r="AD66" s="59"/>
+      <c r="AE66" s="59"/>
+      <c r="AF66" s="59"/>
+      <c r="AG66" s="60"/>
     </row>
     <row r="67" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="38"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
-      <c r="AA67" s="39"/>
-      <c r="AB67" s="39"/>
-      <c r="AC67" s="39"/>
-      <c r="AD67" s="39"/>
-      <c r="AE67" s="39"/>
-      <c r="AF67" s="39"/>
-      <c r="AG67" s="40"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="59"/>
+      <c r="S67" s="59"/>
+      <c r="T67" s="59"/>
+      <c r="U67" s="59"/>
+      <c r="V67" s="59"/>
+      <c r="W67" s="59"/>
+      <c r="X67" s="59"/>
+      <c r="Y67" s="59"/>
+      <c r="Z67" s="59"/>
+      <c r="AA67" s="59"/>
+      <c r="AB67" s="59"/>
+      <c r="AC67" s="59"/>
+      <c r="AD67" s="59"/>
+      <c r="AE67" s="59"/>
+      <c r="AF67" s="59"/>
+      <c r="AG67" s="60"/>
     </row>
     <row r="68" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="38"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="39"/>
-      <c r="AA68" s="39"/>
-      <c r="AB68" s="39"/>
-      <c r="AC68" s="39"/>
-      <c r="AD68" s="39"/>
-      <c r="AE68" s="39"/>
-      <c r="AF68" s="39"/>
-      <c r="AG68" s="40"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
+      <c r="N68" s="59"/>
+      <c r="O68" s="59"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="59"/>
+      <c r="S68" s="59"/>
+      <c r="T68" s="59"/>
+      <c r="U68" s="59"/>
+      <c r="V68" s="59"/>
+      <c r="W68" s="59"/>
+      <c r="X68" s="59"/>
+      <c r="Y68" s="59"/>
+      <c r="Z68" s="59"/>
+      <c r="AA68" s="59"/>
+      <c r="AB68" s="59"/>
+      <c r="AC68" s="59"/>
+      <c r="AD68" s="59"/>
+      <c r="AE68" s="59"/>
+      <c r="AF68" s="59"/>
+      <c r="AG68" s="60"/>
     </row>
     <row r="69" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="38"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="39"/>
-      <c r="AA69" s="39"/>
-      <c r="AB69" s="39"/>
-      <c r="AC69" s="39"/>
-      <c r="AD69" s="39"/>
-      <c r="AE69" s="39"/>
-      <c r="AF69" s="39"/>
-      <c r="AG69" s="40"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="59"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="59"/>
+      <c r="Y69" s="59"/>
+      <c r="Z69" s="59"/>
+      <c r="AA69" s="59"/>
+      <c r="AB69" s="59"/>
+      <c r="AC69" s="59"/>
+      <c r="AD69" s="59"/>
+      <c r="AE69" s="59"/>
+      <c r="AF69" s="59"/>
+      <c r="AG69" s="60"/>
     </row>
     <row r="70" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="38"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="39"/>
-      <c r="AA70" s="39"/>
-      <c r="AB70" s="39"/>
-      <c r="AC70" s="39"/>
-      <c r="AD70" s="39"/>
-      <c r="AE70" s="39"/>
-      <c r="AF70" s="39"/>
-      <c r="AG70" s="40"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="59"/>
+      <c r="N70" s="59"/>
+      <c r="O70" s="59"/>
+      <c r="P70" s="59"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="59"/>
+      <c r="S70" s="59"/>
+      <c r="T70" s="59"/>
+      <c r="U70" s="59"/>
+      <c r="V70" s="59"/>
+      <c r="W70" s="59"/>
+      <c r="X70" s="59"/>
+      <c r="Y70" s="59"/>
+      <c r="Z70" s="59"/>
+      <c r="AA70" s="59"/>
+      <c r="AB70" s="59"/>
+      <c r="AC70" s="59"/>
+      <c r="AD70" s="59"/>
+      <c r="AE70" s="59"/>
+      <c r="AF70" s="59"/>
+      <c r="AG70" s="60"/>
     </row>
     <row r="71" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="38"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
-      <c r="W71" s="39"/>
-      <c r="X71" s="39"/>
-      <c r="Y71" s="39"/>
-      <c r="Z71" s="39"/>
-      <c r="AA71" s="39"/>
-      <c r="AB71" s="39"/>
-      <c r="AC71" s="39"/>
-      <c r="AD71" s="39"/>
-      <c r="AE71" s="39"/>
-      <c r="AF71" s="39"/>
-      <c r="AG71" s="40"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="59"/>
+      <c r="N71" s="59"/>
+      <c r="O71" s="59"/>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="59"/>
+      <c r="R71" s="59"/>
+      <c r="S71" s="59"/>
+      <c r="T71" s="59"/>
+      <c r="U71" s="59"/>
+      <c r="V71" s="59"/>
+      <c r="W71" s="59"/>
+      <c r="X71" s="59"/>
+      <c r="Y71" s="59"/>
+      <c r="Z71" s="59"/>
+      <c r="AA71" s="59"/>
+      <c r="AB71" s="59"/>
+      <c r="AC71" s="59"/>
+      <c r="AD71" s="59"/>
+      <c r="AE71" s="59"/>
+      <c r="AF71" s="59"/>
+      <c r="AG71" s="60"/>
     </row>
     <row r="72" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="38"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
-      <c r="Z72" s="39"/>
-      <c r="AA72" s="39"/>
-      <c r="AB72" s="39"/>
-      <c r="AC72" s="39"/>
-      <c r="AD72" s="39"/>
-      <c r="AE72" s="39"/>
-      <c r="AF72" s="39"/>
-      <c r="AG72" s="40"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="59"/>
+      <c r="AE72" s="59"/>
+      <c r="AF72" s="59"/>
+      <c r="AG72" s="60"/>
     </row>
     <row r="73" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="38"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
-      <c r="Z73" s="39"/>
-      <c r="AA73" s="39"/>
-      <c r="AB73" s="39"/>
-      <c r="AC73" s="39"/>
-      <c r="AD73" s="39"/>
-      <c r="AE73" s="39"/>
-      <c r="AF73" s="39"/>
-      <c r="AG73" s="40"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="59"/>
+      <c r="N73" s="59"/>
+      <c r="O73" s="59"/>
+      <c r="P73" s="59"/>
+      <c r="Q73" s="59"/>
+      <c r="R73" s="59"/>
+      <c r="S73" s="59"/>
+      <c r="T73" s="59"/>
+      <c r="U73" s="59"/>
+      <c r="V73" s="59"/>
+      <c r="W73" s="59"/>
+      <c r="X73" s="59"/>
+      <c r="Y73" s="59"/>
+      <c r="Z73" s="59"/>
+      <c r="AA73" s="59"/>
+      <c r="AB73" s="59"/>
+      <c r="AC73" s="59"/>
+      <c r="AD73" s="59"/>
+      <c r="AE73" s="59"/>
+      <c r="AF73" s="59"/>
+      <c r="AG73" s="60"/>
     </row>
     <row r="74" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="38"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
-      <c r="Z74" s="39"/>
-      <c r="AA74" s="39"/>
-      <c r="AB74" s="39"/>
-      <c r="AC74" s="39"/>
-      <c r="AD74" s="39"/>
-      <c r="AE74" s="39"/>
-      <c r="AF74" s="39"/>
-      <c r="AG74" s="40"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="59"/>
+      <c r="M74" s="59"/>
+      <c r="N74" s="59"/>
+      <c r="O74" s="59"/>
+      <c r="P74" s="59"/>
+      <c r="Q74" s="59"/>
+      <c r="R74" s="59"/>
+      <c r="S74" s="59"/>
+      <c r="T74" s="59"/>
+      <c r="U74" s="59"/>
+      <c r="V74" s="59"/>
+      <c r="W74" s="59"/>
+      <c r="X74" s="59"/>
+      <c r="Y74" s="59"/>
+      <c r="Z74" s="59"/>
+      <c r="AA74" s="59"/>
+      <c r="AB74" s="59"/>
+      <c r="AC74" s="59"/>
+      <c r="AD74" s="59"/>
+      <c r="AE74" s="59"/>
+      <c r="AF74" s="59"/>
+      <c r="AG74" s="60"/>
     </row>
     <row r="75" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="38"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="39"/>
-      <c r="Y75" s="39"/>
-      <c r="Z75" s="39"/>
-      <c r="AA75" s="39"/>
-      <c r="AB75" s="39"/>
-      <c r="AC75" s="39"/>
-      <c r="AD75" s="39"/>
-      <c r="AE75" s="39"/>
-      <c r="AF75" s="39"/>
-      <c r="AG75" s="40"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="59"/>
+      <c r="P75" s="59"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="59"/>
+      <c r="S75" s="59"/>
+      <c r="T75" s="59"/>
+      <c r="U75" s="59"/>
+      <c r="V75" s="59"/>
+      <c r="W75" s="59"/>
+      <c r="X75" s="59"/>
+      <c r="Y75" s="59"/>
+      <c r="Z75" s="59"/>
+      <c r="AA75" s="59"/>
+      <c r="AB75" s="59"/>
+      <c r="AC75" s="59"/>
+      <c r="AD75" s="59"/>
+      <c r="AE75" s="59"/>
+      <c r="AF75" s="59"/>
+      <c r="AG75" s="60"/>
     </row>
     <row r="76" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="38"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
-      <c r="Z76" s="39"/>
-      <c r="AA76" s="39"/>
-      <c r="AB76" s="39"/>
-      <c r="AC76" s="39"/>
-      <c r="AD76" s="39"/>
-      <c r="AE76" s="39"/>
-      <c r="AF76" s="39"/>
-      <c r="AG76" s="40"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="59"/>
+      <c r="N76" s="59"/>
+      <c r="O76" s="59"/>
+      <c r="P76" s="59"/>
+      <c r="Q76" s="59"/>
+      <c r="R76" s="59"/>
+      <c r="S76" s="59"/>
+      <c r="T76" s="59"/>
+      <c r="U76" s="59"/>
+      <c r="V76" s="59"/>
+      <c r="W76" s="59"/>
+      <c r="X76" s="59"/>
+      <c r="Y76" s="59"/>
+      <c r="Z76" s="59"/>
+      <c r="AA76" s="59"/>
+      <c r="AB76" s="59"/>
+      <c r="AC76" s="59"/>
+      <c r="AD76" s="59"/>
+      <c r="AE76" s="59"/>
+      <c r="AF76" s="59"/>
+      <c r="AG76" s="60"/>
     </row>
     <row r="77" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="38"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="39"/>
-      <c r="Z77" s="39"/>
-      <c r="AA77" s="39"/>
-      <c r="AB77" s="39"/>
-      <c r="AC77" s="39"/>
-      <c r="AD77" s="39"/>
-      <c r="AE77" s="39"/>
-      <c r="AF77" s="39"/>
-      <c r="AG77" s="40"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="59"/>
+      <c r="M77" s="59"/>
+      <c r="N77" s="59"/>
+      <c r="O77" s="59"/>
+      <c r="P77" s="59"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="59"/>
+      <c r="S77" s="59"/>
+      <c r="T77" s="59"/>
+      <c r="U77" s="59"/>
+      <c r="V77" s="59"/>
+      <c r="W77" s="59"/>
+      <c r="X77" s="59"/>
+      <c r="Y77" s="59"/>
+      <c r="Z77" s="59"/>
+      <c r="AA77" s="59"/>
+      <c r="AB77" s="59"/>
+      <c r="AC77" s="59"/>
+      <c r="AD77" s="59"/>
+      <c r="AE77" s="59"/>
+      <c r="AF77" s="59"/>
+      <c r="AG77" s="60"/>
     </row>
     <row r="78" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="38"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="39"/>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
-      <c r="Z78" s="39"/>
-      <c r="AA78" s="39"/>
-      <c r="AB78" s="39"/>
-      <c r="AC78" s="39"/>
-      <c r="AD78" s="39"/>
-      <c r="AE78" s="39"/>
-      <c r="AF78" s="39"/>
-      <c r="AG78" s="40"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="59"/>
+      <c r="M78" s="59"/>
+      <c r="N78" s="59"/>
+      <c r="O78" s="59"/>
+      <c r="P78" s="59"/>
+      <c r="Q78" s="59"/>
+      <c r="R78" s="59"/>
+      <c r="S78" s="59"/>
+      <c r="T78" s="59"/>
+      <c r="U78" s="59"/>
+      <c r="V78" s="59"/>
+      <c r="W78" s="59"/>
+      <c r="X78" s="59"/>
+      <c r="Y78" s="59"/>
+      <c r="Z78" s="59"/>
+      <c r="AA78" s="59"/>
+      <c r="AB78" s="59"/>
+      <c r="AC78" s="59"/>
+      <c r="AD78" s="59"/>
+      <c r="AE78" s="59"/>
+      <c r="AF78" s="59"/>
+      <c r="AG78" s="60"/>
     </row>
     <row r="79" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="38"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="39"/>
-      <c r="AA79" s="39"/>
-      <c r="AB79" s="39"/>
-      <c r="AC79" s="39"/>
-      <c r="AD79" s="39"/>
-      <c r="AE79" s="39"/>
-      <c r="AF79" s="39"/>
-      <c r="AG79" s="40"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="59"/>
+      <c r="M79" s="59"/>
+      <c r="N79" s="59"/>
+      <c r="O79" s="59"/>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="59"/>
+      <c r="S79" s="59"/>
+      <c r="T79" s="59"/>
+      <c r="U79" s="59"/>
+      <c r="V79" s="59"/>
+      <c r="W79" s="59"/>
+      <c r="X79" s="59"/>
+      <c r="Y79" s="59"/>
+      <c r="Z79" s="59"/>
+      <c r="AA79" s="59"/>
+      <c r="AB79" s="59"/>
+      <c r="AC79" s="59"/>
+      <c r="AD79" s="59"/>
+      <c r="AE79" s="59"/>
+      <c r="AF79" s="59"/>
+      <c r="AG79" s="60"/>
     </row>
     <row r="80" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="38"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="39"/>
-      <c r="Y80" s="39"/>
-      <c r="Z80" s="39"/>
-      <c r="AA80" s="39"/>
-      <c r="AB80" s="39"/>
-      <c r="AC80" s="39"/>
-      <c r="AD80" s="39"/>
-      <c r="AE80" s="39"/>
-      <c r="AF80" s="39"/>
-      <c r="AG80" s="40"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="59"/>
+      <c r="L80" s="59"/>
+      <c r="M80" s="59"/>
+      <c r="N80" s="59"/>
+      <c r="O80" s="59"/>
+      <c r="P80" s="59"/>
+      <c r="Q80" s="59"/>
+      <c r="R80" s="59"/>
+      <c r="S80" s="59"/>
+      <c r="T80" s="59"/>
+      <c r="U80" s="59"/>
+      <c r="V80" s="59"/>
+      <c r="W80" s="59"/>
+      <c r="X80" s="59"/>
+      <c r="Y80" s="59"/>
+      <c r="Z80" s="59"/>
+      <c r="AA80" s="59"/>
+      <c r="AB80" s="59"/>
+      <c r="AC80" s="59"/>
+      <c r="AD80" s="59"/>
+      <c r="AE80" s="59"/>
+      <c r="AF80" s="59"/>
+      <c r="AG80" s="60"/>
     </row>
     <row r="81" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="38"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="39"/>
-      <c r="Y81" s="39"/>
-      <c r="Z81" s="39"/>
-      <c r="AA81" s="39"/>
-      <c r="AB81" s="39"/>
-      <c r="AC81" s="39"/>
-      <c r="AD81" s="39"/>
-      <c r="AE81" s="39"/>
-      <c r="AF81" s="39"/>
-      <c r="AG81" s="40"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
+      <c r="L81" s="59"/>
+      <c r="M81" s="59"/>
+      <c r="N81" s="59"/>
+      <c r="O81" s="59"/>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="59"/>
+      <c r="S81" s="59"/>
+      <c r="T81" s="59"/>
+      <c r="U81" s="59"/>
+      <c r="V81" s="59"/>
+      <c r="W81" s="59"/>
+      <c r="X81" s="59"/>
+      <c r="Y81" s="59"/>
+      <c r="Z81" s="59"/>
+      <c r="AA81" s="59"/>
+      <c r="AB81" s="59"/>
+      <c r="AC81" s="59"/>
+      <c r="AD81" s="59"/>
+      <c r="AE81" s="59"/>
+      <c r="AF81" s="59"/>
+      <c r="AG81" s="60"/>
     </row>
     <row r="82" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="41"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="42"/>
-      <c r="O82" s="42"/>
-      <c r="P82" s="42"/>
-      <c r="Q82" s="42"/>
-      <c r="R82" s="42"/>
-      <c r="S82" s="42"/>
-      <c r="T82" s="42"/>
-      <c r="U82" s="42"/>
-      <c r="V82" s="42"/>
-      <c r="W82" s="42"/>
-      <c r="X82" s="42"/>
-      <c r="Y82" s="42"/>
-      <c r="Z82" s="42"/>
-      <c r="AA82" s="42"/>
-      <c r="AB82" s="42"/>
-      <c r="AC82" s="42"/>
-      <c r="AD82" s="42"/>
-      <c r="AE82" s="42"/>
-      <c r="AF82" s="42"/>
-      <c r="AG82" s="43"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
+      <c r="O82" s="62"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="62"/>
+      <c r="S82" s="62"/>
+      <c r="T82" s="62"/>
+      <c r="U82" s="62"/>
+      <c r="V82" s="62"/>
+      <c r="W82" s="62"/>
+      <c r="X82" s="62"/>
+      <c r="Y82" s="62"/>
+      <c r="Z82" s="62"/>
+      <c r="AA82" s="62"/>
+      <c r="AB82" s="62"/>
+      <c r="AC82" s="62"/>
+      <c r="AD82" s="62"/>
+      <c r="AE82" s="62"/>
+      <c r="AF82" s="62"/>
+      <c r="AG82" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -5851,22 +5836,30 @@
     <mergeCell ref="B25:AG25"/>
     <mergeCell ref="B28:AG28"/>
     <mergeCell ref="B32:AG32"/>
-    <mergeCell ref="AC14:AG15"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="Z14:AB15"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="B54:AG82"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="B16:AG16"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W14:Y15"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="E12:E13"/>
@@ -5883,30 +5876,22 @@
     <mergeCell ref="H9:M9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B54:AG82"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="B16:AG16"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W14:Y15"/>
-    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="Z14:AB15"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="AC14:AG15"/>
+    <mergeCell ref="AC11:AG11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19097222222222221" right="0.19097222222222221" top="0.19097222222222221" bottom="0.19097222222222221" header="0" footer="0"/>
@@ -5942,8 +5927,8 @@
     <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="1" style="1" customWidth="1"/>
     <col min="17" max="17" width="1.28515625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="69" width="9.140625" style="1" customWidth="1"/>
+    <col min="70" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
